--- a/Lotteria/lotteria_all_store_update.xlsx
+++ b/Lotteria/lotteria_all_store_update.xlsx
@@ -5440,7 +5440,7 @@
     <t xml:space="preserve">인천 서구 중봉대로 587 </t>
   </si>
   <si>
-    <t xml:space="preserve">충북 천안시 동남구 망향로 190 </t>
+    <t>충남 천안시 동남구 망향로 190</t>
   </si>
   <si>
     <t xml:space="preserve">대전 동구 계족로 174 (대동) </t>
@@ -21325,7 +21325,7 @@
         <v>1808</v>
       </c>
       <c r="C502" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="D502" t="s">
         <v>2653</v>
